--- a/biology/Médecine/Grégoire_Lauvau/Grégoire_Lauvau.xlsx
+++ b/biology/Médecine/Grégoire_Lauvau/Grégoire_Lauvau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Lauvau</t>
+          <t>Grégoire_Lauvau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grégoire Lauvau, né en 1970, est un chercheur à l'Institut de pharmacologie Moléculaire et Cellulaire de l'INSERM. En tant que Directeur de recherche, il s'est spécialisé en immunologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégoire Lauvau, né en 1970, est un chercheur à l'Institut de pharmacologie Moléculaire et Cellulaire de l'INSERM. En tant que Directeur de recherche, il s'est spécialisé en immunologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Lauvau</t>
+          <t>Grégoire_Lauvau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titulaire du prix Life and Health: AVENIR INSERM depuis 2004[2], Grégoire Lauvau a démontré en  2007 que des souris immunisées par la souche bactérienne Listeria monocytogenes sont capables d'éliminer un autre parasite intracellulaire (Leishmania major) avec une efficacité extrêmement supérieure lorsque leurs lymphocytes T CD8 mémoires anti-Listeria sont réactivés[3] : « grâce à la production d’une molécule appelée chimiokine, la réaction immunitaire à cette nouvelle infection devient alors 10 000 fois plus efficace que la première ! »[4].
-Depuis 2009, Grégoire Lauvau travaille à l'AECOM de la Yeshiva University à New York aux États-Unis[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titulaire du prix Life and Health: AVENIR INSERM depuis 2004, Grégoire Lauvau a démontré en  2007 que des souris immunisées par la souche bactérienne Listeria monocytogenes sont capables d'éliminer un autre parasite intracellulaire (Leishmania major) avec une efficacité extrêmement supérieure lorsque leurs lymphocytes T CD8 mémoires anti-Listeria sont réactivés : « grâce à la production d’une molécule appelée chimiokine, la réaction immunitaire à cette nouvelle infection devient alors 10 000 fois plus efficace que la première ! ».
+Depuis 2009, Grégoire Lauvau travaille à l'AECOM de la Yeshiva University à New York aux États-Unis.
 </t>
         </is>
       </c>
